--- a/data/Subset1_WithDialogActs/Martino Fraction Equivalence 1_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Martino Fraction Equivalence 1_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -775,12 +775,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1539,12 +1539,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2109,12 +2109,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2603,12 +2603,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3021,12 +3021,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3097,12 +3097,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3135,12 +3135,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3405,12 +3405,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3595,12 +3595,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3745,12 +3745,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3783,12 +3783,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
